--- a/data/raw-data/H5N1-mouse-weights.xlsx
+++ b/data/raw-data/H5N1-mouse-weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\andreashandel\handel-qsp-probenecid-dosing\data\raw-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664FDB03-97D7-42D1-9B88-548788E35C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753B2728-064F-434F-980D-E8B12E67DBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12075" yWindow="1920" windowWidth="43680" windowHeight="17805" activeTab="1" xr2:uid="{0ABCB032-BD1C-4505-836D-0B47DA6B8E91}"/>
+    <workbookView xWindow="12420" yWindow="2265" windowWidth="43680" windowHeight="17805" activeTab="2" xr2:uid="{0ABCB032-BD1C-4505-836D-0B47DA6B8E91}"/>
   </bookViews>
   <sheets>
     <sheet name="Weights (g)" sheetId="5" r:id="rId1"/>
@@ -334,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -358,7 +358,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -386,7 +385,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -719,41 +718,41 @@
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="21" t="s">
+      <c r="B2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="21" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="21" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="21" t="s">
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="23"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="22"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1080,41 +1079,41 @@
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="18" t="s">
+      <c r="B10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="18" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="18" t="s">
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="18" t="s">
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="20"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="19"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1577,41 +1576,41 @@
       <c r="A20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="19" t="s">
+      <c r="B20" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="18" t="s">
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="18" t="s">
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="18" t="s">
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="20"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="19"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -2184,21 +2183,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="V10:Z10"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="G20:K20"/>
     <mergeCell ref="L20:P20"/>
     <mergeCell ref="Q20:U20"/>
     <mergeCell ref="V20:Z20"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="V10:Z10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2208,7 +2207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24532F6-06BC-41B2-B3B1-BD994EA722A5}">
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4035,8 +4034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113CA94F-AB5B-49B3-906C-1B8BBC7C7C7D}">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4049,41 +4048,41 @@
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="24" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="24" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="24" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="27" t="s">
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -4150,19 +4149,19 @@
       <c r="V3" s="10">
         <v>0</v>
       </c>
-      <c r="W3" s="17">
-        <v>0</v>
-      </c>
-      <c r="X3" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="17">
+      <c r="W3" s="8">
+        <v>0</v>
+      </c>
+      <c r="X3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4231,19 +4230,19 @@
       <c r="V4" s="10">
         <v>-17</v>
       </c>
-      <c r="W4" s="17">
-        <v>0</v>
-      </c>
-      <c r="X4" s="17">
+      <c r="W4" s="8">
+        <v>0</v>
+      </c>
+      <c r="X4" s="8">
         <v>-12</v>
       </c>
-      <c r="Y4" s="17">
+      <c r="Y4" s="8">
         <v>-12</v>
       </c>
-      <c r="Z4" s="17">
+      <c r="Z4" s="8">
         <v>-17</v>
       </c>
-      <c r="AA4" s="17">
+      <c r="AA4" s="8">
         <v>-11</v>
       </c>
     </row>
@@ -4312,19 +4311,19 @@
       <c r="V5" s="10">
         <v>-17</v>
       </c>
-      <c r="W5" s="17">
+      <c r="W5" s="8">
         <v>-6</v>
       </c>
-      <c r="X5" s="17">
+      <c r="X5" s="8">
         <v>-12</v>
       </c>
-      <c r="Y5" s="17">
+      <c r="Y5" s="8">
         <v>-19</v>
       </c>
-      <c r="Z5" s="17">
+      <c r="Z5" s="8">
         <v>-17</v>
       </c>
-      <c r="AA5" s="17">
+      <c r="AA5" s="8">
         <v>-11</v>
       </c>
     </row>
@@ -4393,19 +4392,19 @@
       <c r="V6" s="10">
         <v>-17</v>
       </c>
-      <c r="W6" s="17">
+      <c r="W6" s="8">
         <v>-6</v>
       </c>
-      <c r="X6" s="17">
+      <c r="X6" s="8">
         <v>-12</v>
       </c>
-      <c r="Y6" s="17">
+      <c r="Y6" s="8">
         <v>-19</v>
       </c>
-      <c r="Z6" s="17">
+      <c r="Z6" s="8">
         <v>-17</v>
       </c>
-      <c r="AA6" s="17">
+      <c r="AA6" s="8">
         <v>-11</v>
       </c>
     </row>
@@ -4474,19 +4473,19 @@
       <c r="V7" s="10">
         <v>-17</v>
       </c>
-      <c r="W7" s="17">
+      <c r="W7" s="8">
         <v>-6</v>
       </c>
-      <c r="X7" s="17">
+      <c r="X7" s="8">
         <v>-12</v>
       </c>
-      <c r="Y7" s="17">
+      <c r="Y7" s="8">
         <v>-12</v>
       </c>
-      <c r="Z7" s="17">
+      <c r="Z7" s="8">
         <v>-17</v>
       </c>
-      <c r="AA7" s="17">
+      <c r="AA7" s="8">
         <v>-11</v>
       </c>
     </row>
@@ -4555,19 +4554,19 @@
       <c r="V8" s="10">
         <v>-17</v>
       </c>
-      <c r="W8" s="17">
+      <c r="W8" s="8">
         <v>-6</v>
       </c>
-      <c r="X8" s="17">
+      <c r="X8" s="8">
         <v>-6</v>
       </c>
-      <c r="Y8" s="17">
+      <c r="Y8" s="8">
         <v>-6</v>
       </c>
-      <c r="Z8" s="17">
+      <c r="Z8" s="8">
         <v>-11</v>
       </c>
-      <c r="AA8" s="17">
+      <c r="AA8" s="8">
         <v>-11</v>
       </c>
     </row>
@@ -4636,19 +4635,19 @@
       <c r="V9" s="13">
         <v>-17</v>
       </c>
-      <c r="W9" s="17">
+      <c r="W9" s="8">
         <v>-6</v>
       </c>
-      <c r="X9" s="17">
+      <c r="X9" s="8">
         <v>-6</v>
       </c>
-      <c r="Y9" s="17">
+      <c r="Y9" s="8">
         <v>-6</v>
       </c>
-      <c r="Z9" s="17">
+      <c r="Z9" s="8">
         <v>-11</v>
       </c>
-      <c r="AA9" s="17">
+      <c r="AA9" s="8">
         <v>-5</v>
       </c>
     </row>
